--- a/TOR130 Data/100x100trail/TOR130_2021.xlsx
+++ b/TOR130 Data/100x100trail/TOR130_2021.xlsx
@@ -838,19 +838,19 @@
     <t>Tieran Christophe</t>
   </si>
   <si>
-    <t>Paronuzzi  Raphael</t>
+    <t>Paronuzzi Raphael</t>
   </si>
   <si>
     <t>Monney Noelie</t>
   </si>
   <si>
-    <t>Juglair  Julien</t>
+    <t>Juglair Julien</t>
   </si>
   <si>
     <t>Ferre Camille</t>
   </si>
   <si>
-    <t>Negro  Mattia</t>
+    <t>Negro Mattia</t>
   </si>
   <si>
     <t>Lillaz Luca</t>
@@ -862,7 +862,7 @@
     <t>Cazzoli Filippo</t>
   </si>
   <si>
-    <t>Perron  Jean Luc</t>
+    <t>Perron Jean Luc</t>
   </si>
   <si>
     <t>Juliussen Rasmus</t>
@@ -895,7 +895,7 @@
     <t>Maggi Matteo</t>
   </si>
   <si>
-    <t>Anandy  Didier</t>
+    <t>Anandy Didier</t>
   </si>
   <si>
     <t>Ludovic Frattini</t>
@@ -904,7 +904,7 @@
     <t>Doussot Laurent</t>
   </si>
   <si>
-    <t>Navillod  Rinaldo</t>
+    <t>Navillod Rinaldo</t>
   </si>
   <si>
     <t>Pott Julien</t>
@@ -1201,7 +1201,7 @@
     <t>Smith Steven</t>
   </si>
   <si>
-    <t>Roux  Gilles</t>
+    <t>Roux Gilles</t>
   </si>
   <si>
     <t>Pizzatti Christian</t>
@@ -1240,7 +1240,7 @@
     <t>Carusi Valeria</t>
   </si>
   <si>
-    <t>Lamberti  Carmine</t>
+    <t>Lamberti Carmine</t>
   </si>
   <si>
     <t>Buche Alexandre</t>
@@ -1312,7 +1312,7 @@
     <t>Ferrando Francesca</t>
   </si>
   <si>
-    <t>Tufano  Gennaro</t>
+    <t>Tufano Gennaro</t>
   </si>
   <si>
     <t>Amati Rudi Mario</t>
@@ -1348,7 +1348,7 @@
     <t>Praesi Suraroek</t>
   </si>
   <si>
-    <t>Hecquet  Emmanuelle</t>
+    <t>Hecquet Emmanuelle</t>
   </si>
   <si>
     <t>Moro Paolo</t>
@@ -1360,13 +1360,13 @@
     <t>Revello Alessia</t>
   </si>
   <si>
-    <t>Chanoine  Didier Dario</t>
+    <t>Chanoine Didier Dario</t>
   </si>
   <si>
     <t>Risino Matteo</t>
   </si>
   <si>
-    <t>Di Costanzo  Guido</t>
+    <t>Di Costanzo Guido</t>
   </si>
   <si>
     <t>Ripamonti Marta</t>
@@ -1384,7 +1384,7 @@
     <t>Pino Andrea</t>
   </si>
   <si>
-    <t>Mckenna  Gareth</t>
+    <t>Mckenna Gareth</t>
   </si>
   <si>
     <t>De Cristofaro Gianluca</t>
@@ -1516,7 +1516,7 @@
     <t>Giovannangelo Alain</t>
   </si>
   <si>
-    <t>Vigano  Piero Francesco</t>
+    <t>Vigano Piero Francesco</t>
   </si>
   <si>
     <t>Nessi Manuel</t>
@@ -1549,7 +1549,7 @@
     <t>Zak Borislav</t>
   </si>
   <si>
-    <t>Bieller  Didier</t>
+    <t>Bieller Didier</t>
   </si>
   <si>
     <t>Stevenin Diego</t>
@@ -1585,7 +1585,7 @@
     <t>Etienne Wey</t>
   </si>
   <si>
-    <t>Jean Luc  Diard</t>
+    <t>Jean Luc Diard</t>
   </si>
   <si>
     <t>Pilloni Andrea</t>
